--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_beg.xlsx
@@ -1620,7 +1620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  My “teacher” wasn’t anything like you, for sure.
+    <t xml:space="preserve">[name="Talulah"]  My 'teacher' wasn’t anything like you, for sure.
 </t>
   </si>
   <si>
@@ -1708,7 +1708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You already know all the rest. After FrostNova and I had our “friendly discussion,” our group successfully joined up with the guerrillas.
+    <t xml:space="preserve">[name="Talulah"]  You already know all the rest. After FrostNova and I had our 'friendly discussion,' our group successfully joined up with the guerrillas.
 </t>
   </si>
   <si>
@@ -1760,11 +1760,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  A friend of mine in a certain city calls that kind of behavior “reunion.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  He calls on the Infected to come together, naming it the “Reunion Movement,” revolving around one identical belief, protesting against Ursus’s cruel rule over the Infected.
+    <t xml:space="preserve">[name="Talulah"]  A friend of mine in a certain city calls that kind of behavior 'reunion.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  He calls on the Infected to come together, naming it the 'Reunion Movement,' revolving around one identical belief, protesting against Ursus’s cruel rule over the Infected.
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  If you want to go south to “protest,” we could just save ourselves the trouble and find a division to kill us.
+    <t xml:space="preserve">[name="FrostNova"]  If you want to go south to 'protest,' we could just save ourselves the trouble and find a division to kill us.
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  “You are not alone.” 
+    <t xml:space="preserve">[name="Talulah"]  'You are not alone.' 
 </t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  What I’m thinking is written on my face. I don’t know anything you’d call a “future.”
+    <t xml:space="preserve">[name="FrostNova"]  What I’m thinking is written on my face. I don’t know anything you’d call a 'future.'
 </t>
   </si>
   <si>
@@ -2296,11 +2296,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="탈룰라"]  프로스트노바가 어렸을 때 어떻게 자랐는지는 나도 몰라. 교양 있는 걸 보면 꽤 잘 지내온 것 같던데.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="탈룰라"]  어떤 아이도 내가 겪었던 일을 겪게 하고 싶지 않아.
+    <t xml:space="preserve">[name="탈룰라"]  나도 프로스트노바가 어렸을 때 어떻게 자랐는지는 잘 몰라. 교양이 있는 걸로 봐선, 그래도 나름 잘 살았던 것 같던데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  다른 아이들이 내가 겪었던 일을 겪게 놔두고 싶진 않아.
 </t>
   </si>
   <si>
@@ -2312,7 +2312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="알리나"]  ……탈룰라, 이 땅이 아이들에게 어떤 경험을 선사할지, 우리보다 더 터무니없는 경험을 하게 할지 아무도 알 수 없어.
+    <t xml:space="preserve">[name="알리나"]  ……탈룰라, 이 땅이 아이들에게 어떤 경험을 선사할지, 우리보다 더 터무니없는 경험을 하게 할지는, 아무도 알 수 없는 거야.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_beg.xlsx
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Back when I first became Infected, my mind wasn’t clear on anything.
+    <t xml:space="preserve">Back when I first became Infected, my mind wasn't clear on anything.
 </t>
   </si>
   <si>
@@ -1448,7 +1448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Had he planned some kind of trick, one to destroy in a blink of an eye the network of Infected I’d spent so much time setting up?
+    <t xml:space="preserve">Had he planned some kind of trick, one to destroy in a blink of an eye the network of Infected I'd spent so much time setting up?
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Or the even more frightening scenario—perhaps he’d planned for the Infected to become a new army, and for Ursus to be plunged into war once more?
+    <t xml:space="preserve">Or the even more frightening scenario—perhaps he'd planned for the Infected to become a new army, and for Ursus to be plunged into war once more?
 </t>
   </si>
   <si>
@@ -1472,7 +1472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Oh, that... I remember that. The time’s gone so fast. It’s been two whole years.
+    <t xml:space="preserve">[name="Alina"]  Oh, that... I remember that. The time's gone so fast. It's been two whole years.
 </t>
   </si>
   <si>
@@ -1480,23 +1480,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It wasn’t that dramatic. Rumors always get more outlandish as time goes on... all I did was melt her Originium ice crystals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Sashenka, no running around! You’ll slip!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Look at them, just free to live. It’s so nice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  It’s a duty of mine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I never imagined you’d volunteer to teach the children.
+    <t xml:space="preserve">[name="Talulah"]  It wasn't that dramatic. Rumors always get more outlandish as time goes on... all I did was melt her Originium ice crystals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Sashenka, no running around! You'll slip!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Look at them, just free to live. It's so nice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It's a duty of mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I never imagined you'd volunteer to teach the children.
 </t>
   </si>
   <si>
@@ -1504,11 +1504,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  FrostNova’s Originium ice crystals. A sort of Arts device her squad used, by my guess.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  That’s something... I’m sure FrostNova didn’t like it.
+    <t xml:space="preserve">[name="Talulah"]  FrostNova's Originium ice crystals. A sort of Arts device her squad used, by my guess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That's something... I'm sure FrostNova didn't like it.
 </t>
   </si>
   <si>
@@ -1528,19 +1528,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Ah, you’re pretty happy to talk about this. Are you proud of it, maybe?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Not really... yeah maybe you are right... uh. That child. The one hiding behind the wood fence. What’s her name?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Lyubov. That’s enough spying on us, Liuba! I’ll read a story for you all next period.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  That’s right, a story all about an old ghost in the gray forest... a scary story!
+    <t xml:space="preserve">[name="Alina"]  Ah, you're pretty happy to talk about this. Are you proud of it, maybe?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Not really... yeah maybe you are right... uh. That child. The one hiding behind the wood fence. What's her name?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Lyubov. That's enough spying on us, Liuba! I'll read a story for you all next period.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That's right, a story all about an old ghost in the gray forest... a scary story!
 </t>
   </si>
   <si>
@@ -1552,27 +1552,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  FrostNova... Alina, you know it’s FrostNova we’re talking about. Her name spread among the Casters of the Northwestern Tundra long before mine ever did.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I thought you didn’t like it when people spoke your name.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  If anyone ever uses it to threaten, then of course I won’t be happy. But if hearing my name makes them want to challenge me, then that’s not too shabby.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Nothing like you. I don’t think FrostNova ever gives challenges the time of day. Thinking about it that way, you really stoked her fire, didn’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  She’s the top of the Infected Casters, the top squad commander, and the strongest of the Infected’s warriors to boot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ...Don’t misunderstand. It’s not like that’s what I aim for.
+    <t xml:space="preserve">[name="Talulah"]  FrostNova... Alina, you know it's FrostNova we're talking about. Her name spread among the Casters of the Northwestern Tundra long before mine ever did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I thought you didn't like it when people spoke your name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If anyone ever uses it to threaten, then of course I won't be happy. But if hearing my name makes them want to challenge me, then that's not too shabby.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Nothing like you. I don't think FrostNova ever gives challenges the time of day. Thinking about it that way, you really stoked her fire, didn't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  She's the top of the Infected Casters, the top squad commander, and the strongest of the Infected's warriors to boot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Don't misunderstand. It's not like that's what I aim for.
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Time out, time out. Now that’s a word I’m not happy with. How about you, Alina? What do you think?
+    <t xml:space="preserve">[name="Talulah"]  Time out, time out. Now that's a word I'm not happy with. How about you, Alina? What do you think?
 </t>
   </si>
   <si>
@@ -1588,43 +1588,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Figured you’d say something like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Truth be told, I don’t really know what FrostNova’s life was like as a child. She’s been brought up well. It was probably alright.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  But don’t let any child experience the things I did.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  You’ve been brought up well, too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t want to talk about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  ...Talulah, none of us know the bitter things the world has in store for them, nor whether those things will be even more absurd than what we’ve already seen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Well, that’s depressing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  It’s also the reason I wanted to be a teacher.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  My 'teacher' wasn’t anything like you, for sure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ...I get what you mean, now. You’re saying maybe FrostNova also had, well...
+    <t xml:space="preserve">[name="Talulah"]  Figured you'd say something like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Truth be told, I don't really know what FrostNova's life was like as a child. She's been brought up well. It was probably alright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But don't let any child experience the things I did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You've been brought up well, too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don't want to talk about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...Talulah, none of us know the bitter things the world has in store for them, nor whether those things will be even more absurd than what we've already seen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well, that's depressing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It's also the reason I wanted to be a teacher.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  My 'teacher' wasn't anything like you, for sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...I get what you mean, now. You're saying maybe FrostNova also had, well...
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Well, to wrap up, I never slacked on practicing technique again after my dispute with FrostNova. Not just Arts, my swordsmanship too. Like hell she’ll ever best me again in either.
+    <t xml:space="preserve">[name="Talulah"]  Well, to wrap up, I never slacked on practicing technique again after my dispute with FrostNova. Not just Arts, my swordsmanship too. Like hell she'll ever best me again in either.
 </t>
   </si>
   <si>
@@ -1640,15 +1640,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It took until her anger abated before she told me she wasn’t the one responsible.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Then that only leaves one person who could’ve been.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re right on the mark, yes. It wasn’t too long after our scuffle finished...
+    <t xml:space="preserve">[name="Talulah"]  It took until her anger abated before she told me she wasn't the one responsible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Then that only leaves one person who could've been.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You're right on the mark, yes. It wasn't too long after our scuffle finished...
 </t>
   </si>
   <si>
@@ -1664,15 +1664,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I should say, that first impression was too shocking. I’m scrambling to find the words for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  The broad midday light spilled over his body, but couldn’t melt away the black, black as tar.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I was in the middle of telling FrostNova about my project. I’d gotten up to where I was in contact with Infected in other cities.
+    <t xml:space="preserve">[name="Talulah"]  I should say, that first impression was too shocking. I'm scrambling to find the words for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The broad midday light spilled over his body, but couldn't melt away the black, black as tar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I was in the middle of telling FrostNova about my project. I'd gotten up to where I was in contact with Infected in other cities.
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I saw his shadow. I couldn’t keep speaking.
+    <t xml:space="preserve">[name="Talulah"]  I saw his shadow. I couldn't keep speaking.
 </t>
   </si>
   <si>
@@ -1688,11 +1688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m not THAT confident in myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Not that confident? I’ve never seen you short of confidence before.
+    <t xml:space="preserve">[name="Talulah"]  I'm not THAT confident in myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Not that confident? I've never seen you short of confidence before.
 </t>
   </si>
   <si>
@@ -1700,11 +1700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  You couldn’t talk him over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I still haven’t to this day.
+    <t xml:space="preserve">[name="Alina"]  You couldn't talk him over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I still haven't to this day.
 </t>
   </si>
   <si>
@@ -1716,23 +1716,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  These last two years have been better to us than before. You made a good choice. You’re finally in the right, Talulah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I mean... the way I see it, the guerrillas definitely didn’t care about me or the other Infected fighters, they just... couldn’t ignore the rest of the Infected, traveling with us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Then that’s even less reason to be down about it. You thought the same way, after all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  But it’s been two years. The situation hasn’t made any headway at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Think about it this way, Talulah. From what moment did you start feeling Patriot didn’t approve of you?
+    <t xml:space="preserve">[name="Alina"]  These last two years have been better to us than before. You made a good choice. You're finally in the right, Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I mean... the way I see it, the guerrillas definitely didn't care about me or the other Infected fighters, they just... couldn't ignore the rest of the Infected, traveling with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Then that's even less reason to be down about it. You thought the same way, after all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But it's been two years. The situation hasn't made any headway at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Think about it this way, Talulah. From what moment did you start feeling Patriot didn't approve of you?
 </t>
   </si>
   <si>
@@ -1744,15 +1744,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  We don’t even know how many more Infected are out on the tundra under Ursus’s wretched rule. It’s too early yet to be talking with the guerrillas about the Infected in the cities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We’re not intending to abandon the tundra’s Infected. Why would I have brought them with me, otherwise?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Sooner or later will come the day we return. Our objective is to have Ursus’s, no, the entire world’s Infected come together...
+    <t xml:space="preserve">[name="FrostNova"]  We don't even know how many more Infected are out on the tundra under Ursus's wretched rule. It's too early yet to be talking with the guerrillas about the Infected in the cities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We're not intending to abandon the tundra's Infected. Why would I have brought them with me, otherwise?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sooner or later will come the day we return. Our objective is to have Ursus's, no, the entire world's Infected come together...
 </t>
   </si>
   <si>
@@ -1764,15 +1764,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  He calls on the Infected to come together, naming it the 'Reunion Movement,' revolving around one identical belief, protesting against Ursus’s cruel rule over the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  And we should get the chance to protest the Ursus soldiers on the tundra about the exploitation in the mines, but I can’t say it’d make them turn over a new leaf.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  Talulah, forget the common people for a moment. Talk about the soldiers. The Ursus Army wouldn’t let a single one of us go.
+    <t xml:space="preserve">[name="Talulah"]  He calls on the Infected to come together, naming it the 'Reunion Movement,' revolving around one identical belief, protesting against Ursus's cruel rule over the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  And we should get the chance to protest the Ursus soldiers on the tundra about the exploitation in the mines, but I can't say it'd make them turn over a new leaf.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Talulah, forget the common people for a moment. Talk about the soldiers. The Ursus Army wouldn't let a single one of us go.
 </t>
   </si>
   <si>
@@ -1800,11 +1800,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  I don’t decide this stuff.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re still not willing to decide it.
+    <t xml:space="preserve">[name="FrostNova"]  I don't decide this stuff.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You're still not willing to decide it.
 </t>
   </si>
   <si>
@@ -1816,11 +1816,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Talulah, you haven’t got brothers and sisters by your side. I’m not going to let mine throw away their lives.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  But I think the other part’s right.
+    <t xml:space="preserve">[name="FrostNova"]  Talulah, you haven't got brothers and sisters by your side. I'm not going to let mine throw away their lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  But I think the other part's right.
 </t>
   </si>
   <si>
@@ -1828,11 +1828,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Telling the Infected they’re not alone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  We’ve spent too much time on one thing, here on the tundra.
+    <t xml:space="preserve">[name="FrostNova"]  Telling the Infected they're not alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  We've spent too much time on one thing, here on the tundra.
 </t>
   </si>
   <si>
@@ -1848,27 +1848,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t need you mocking me yet, FrostNova.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  I’m not mocking you. You’re so strong. You’ve taken all of them a long, long way, just like us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  But it’s a dream, going south, trust me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  The guerrilla force grows, but we’re Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  We don’t have many years left... and your alliance would need plenty of years, at least...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  And that’s precisely why—
+    <t xml:space="preserve">[name="Talulah"]  I don't need you mocking me yet, FrostNova.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  I'm not mocking you. You're so strong. You've taken all of them a long, long way, just like us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  But it's a dream, going south, trust me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  The guerrilla force grows, but we're Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  We don't have many years left... and your alliance would need plenty of years, at least...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And that's precisely why—
 </t>
   </si>
   <si>
@@ -1892,11 +1892,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  You’re good. Keep going.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s precisely because we don’t have many years left.
+    <t xml:space="preserve">[name="FrostNova"]  You're good. Keep going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's precisely because we don't have many years left.
 </t>
   </si>
   <si>
@@ -1916,15 +1916,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  FrostNova, there’s every likelihood I know what you’re thinking.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  What I’m thinking is written on my face. I don’t know anything you’d call a 'future.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We may not have much time left at all. There’s only so many places it’d let us set foot.
+    <t xml:space="preserve">[name="Talulah"]  FrostNova, there's every likelihood I know what you're thinking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  What I'm thinking is written on my face. I don't know anything you'd call a 'future.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We may not have much time left at all. There's only so many places it'd let us set foot.
 </t>
   </si>
   <si>
@@ -1932,19 +1932,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  FrostNova... we’ll find those Infected a home.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Somewhere Ursus and the Infected Patrol Unit won’t disturb. Somewhere the Ursus armies can’t surround.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  And you know for sure, taking the Infected with us would get in the way of the guerrillas’ operations. But we won’t abandon them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  It’ll be a seriously difficult path.
+    <t xml:space="preserve">[name="Talulah"]  FrostNova... we'll find those Infected a home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Somewhere Ursus and the Infected Patrol Unit won't disturb. Somewhere the Ursus armies can't surround.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  And you know for sure, taking the Infected with us would get in the way of the guerrillas' operations. But we won't abandon them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  It'll be a seriously difficult path.
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  And, if we overthrow Ursus’s present system over the Infected...
+    <t xml:space="preserve">[name="Talulah"]  And, if we overthrow Ursus's present system over the Infected...
 </t>
   </si>
   <si>
@@ -1960,19 +1960,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  We’re thin on the ground.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  If you weren’t an Infected, would you shake my hand?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We’d start from a handshake, in that case.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  ...What you’re saying is probably...
+    <t xml:space="preserve">[name="FrostNova"]  We're thin on the ground.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  If you weren't an Infected, would you shake my hand?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We'd start from a handshake, in that case.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ...What you're saying is probably...
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I’ve had enough.
+    <t xml:space="preserve">[name="Patriot"]  I've had enough.
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Don’t mind it too much.
+    <t xml:space="preserve">[name="FrostNova"]  Don't mind it too much.
 </t>
   </si>
   <si>
@@ -2000,27 +2000,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  He’s been thinking it over for ages, if so.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s been two years, and the only conversations we’ve ever had have been about team composition and following plans. He’s never asked me once about anything to do with any project.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Talulah, no matter if he’s ridiculing you or opposing you—ah, not that I think he’s the type to really ridicule other people—you’re still going to wait forever. Am I right, or not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  If we want to leave the tundra, we need the power of the guerrillas. I’ll keep at it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Because he’s the hope of the tundra’s Infected?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I thought you didn’t say things like that. I mean, you never... you don’t say things like that, right?
+    <t xml:space="preserve">[name="Talulah"]  He's been thinking it over for ages, if so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's been two years, and the only conversations we've ever had have been about team composition and following plans. He's never asked me once about anything to do with any project.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talulah, no matter if he's ridiculing you or opposing you—ah, not that I think he's the type to really ridicule other people—you're still going to wait forever. Am I right, or not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If we want to leave the tundra, we need the power of the guerrillas. I'll keep at it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Because he's the hope of the tundra's Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I thought you didn't say things like that. I mean, you never... you don't say things like that, right?
 </t>
   </si>
   <si>
@@ -2028,7 +2028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  ...I think—it’s because he’s the symbol the tundra’s Infected unite behind.
+    <t xml:space="preserve">[name="Talulah"]  ...I think—it's because he's the symbol the tundra's Infected unite behind.
 </t>
   </si>
   <si>
@@ -2044,11 +2044,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  I don’t care how stick thin you are, don’t tell me this cold front’s too much for you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You sure weren’t saying that when you iced these Ursus weapons.
+    <t xml:space="preserve">[name="FrostNova"]  I don't care how stick thin you are, don't tell me this cold front's too much for you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You sure weren't saying that when you iced these Ursus weapons.
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Just hold on until the Shieldguards can support us! Don’t lose hope! 
+    <t xml:space="preserve">[name="Talulah"]  Just hold on until the Shieldguards can support us! Don't lose hope! 
 </t>
   </si>
   <si>
@@ -2076,7 +2076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  The Ursus army isn’t pursuing us anymore. Seems like they’re really not a fan of what those entail.
+    <t xml:space="preserve">[name="Talulah"]  The Ursus army isn't pursuing us anymore. Seems like they're really not a fan of what those entail.
 </t>
   </si>
   <si>
@@ -2092,11 +2092,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  You said it yourself. You were expecting our team to be surprise-attacked. And if we wanted to annihilate their whole company, of course we’d come up short if we only relied on our squad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  ...They’re already beginning to rout.
+    <t xml:space="preserve">[name="FrostNova"]  You said it yourself. You were expecting our team to be surprise-attacked. And if we wanted to annihilate their whole company, of course we'd come up short if we only relied on our squad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ...They're already beginning to rout.
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Local Ursus Troop"]  The... him... It’s him... Why did none of you s—say... say he was here?!
+    <t xml:space="preserve">[name="Local Ursus Troop"]  The... him... It's him... Why did none of you s—say... say he was here?!
 </t>
   </si>
   <si>
@@ -2112,7 +2112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Local Ursus Troop"]  Wait, hold on! He’s coming from the rear? Then what’s all this in front of us?
+    <t xml:space="preserve">[name="Local Ursus Troop"]  Wait, hold on! He's coming from the rear? Then what's all this in front of us?
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">카셰이가 날 많은 일을 이용하려는 걸 알곤 있었지만 언제나 무서웠어, 내게 뭘 원하는지 몰랐거든.
+    <t xml:space="preserve">카셰이가 날 많은 일에 이용하려는 걸 알곤 있었지만 언제나 무서웠어, 내게 뭘 원하는지 몰랐거든.
 </t>
   </si>
   <si>
